--- a/Excel/Localization/LocalizationArtAsset.xlsx
+++ b/Excel/Localization/LocalizationArtAsset.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\SJProject\Excel\Localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\Excel\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495091DD-8F8F-4B5C-BCAB-BFB4E71AF611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="3900" yWindow="2775" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CN" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>#</t>
   </si>
@@ -72,13 +73,41 @@
   </si>
   <si>
     <t xml:space="preserve">本地化美术资源表 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UILogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Bundles/UI/UILogin.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UILobby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Bundles/UI/UILobby.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CachePoolSeconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象池缓存最大秒数  填0则为默认值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,10 +165,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -419,30 +453,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="28.625" customWidth="1"/>
+    <col min="5" max="5" width="33.75" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -451,61 +486,97 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C6">
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="2">
         <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Localization/LocalizationArtAsset.xlsx
+++ b/Excel/Localization/LocalizationArtAsset.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\Excel\Localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\SJProject\Excel\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495091DD-8F8F-4B5C-BCAB-BFB4E71AF611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2775" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="2775" windowWidth="21600" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="CN" sheetId="1" r:id="rId1"/>
@@ -25,89 +24,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>辅助说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认资源路径 对应语言获取不到时读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">本地化美术资源表 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UILogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Bundles/UI/UILogin.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UILobby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Bundles/UI/UILobby.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CachePoolMillSeconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象池缓存最大毫秒数  填0则为默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>辅助说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认资源路径 对应语言获取不到时读取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">本地化美术资源表 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UILogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Bundles/UI/UILogin.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UILobby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Bundles/UI/UILobby.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CachePoolSeconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象池缓存最大秒数  填0则为默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Scenes/Map.unity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -453,11 +461,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -470,59 +478,48 @@
     <col min="8" max="8" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>17</v>
@@ -531,20 +528,20 @@
     <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -552,10 +549,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -568,14 +565,30 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Localization/LocalizationArtAsset.xlsx
+++ b/Excel/Localization/LocalizationArtAsset.xlsx
@@ -12,7 +12,10 @@
     <workbookView xWindow="3900" yWindow="2775" windowWidth="21600" windowHeight="11400"/>
   </bookViews>
   <sheets>
-    <sheet name="CN" sheetId="1" r:id="rId1"/>
+    <sheet name="UI" sheetId="1" r:id="rId1"/>
+    <sheet name="Scene" sheetId="3" r:id="rId2"/>
+    <sheet name="Model" sheetId="5" r:id="rId3"/>
+    <sheet name="Audio" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -109,6 +112,34 @@
   </si>
   <si>
     <t>Assets/Scenes/Map.unity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">本地化美术资源表 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIHUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIBag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H8"/>
+  <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -510,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -530,7 +561,9 @@
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
@@ -581,16 +614,383 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="33.75" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="27.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="33.75" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="27.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="33.75" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="27.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/Localization/LocalizationArtAsset.xlsx
+++ b/Excel/Localization/LocalizationArtAsset.xlsx
@@ -15,7 +15,6 @@
     <sheet name="UI" sheetId="1" r:id="rId1"/>
     <sheet name="Scene" sheetId="3" r:id="rId2"/>
     <sheet name="Model" sheetId="5" r:id="rId3"/>
-    <sheet name="Audio" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -79,18 +78,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Bundles/UI/UILogin.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UILobby</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Bundles/UI/UILobby.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,16 +122,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>音频资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UIHUD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UIBag</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Bundles/UI/UIBag/UIBag.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Bundles/UI/UIHUD/UIHUD.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/UI/UILogin/UILogin.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/UI/UILobby/UILobby.prefab</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,164 @@
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="43.25" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="27.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -511,7 +668,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -532,7 +689,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -541,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -553,7 +710,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -562,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -574,64 +731,24 @@
         <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="2">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="2">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -640,12 +757,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H8"/>
+  <dimension ref="B2:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A6" sqref="A6:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -660,7 +777,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -681,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -702,7 +819,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
@@ -711,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -723,274 +840,8 @@
         <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="2">
-        <v>10001</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="33.75" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="8" max="8" width="27.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="33.75" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="8" max="8" width="27.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/Localization/LocalizationArtAsset.xlsx
+++ b/Excel/Localization/LocalizationArtAsset.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\SJProject\Excel\Localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\Excel\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8275B41-D357-4FA3-802D-E55A4E746F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2775" windowWidth="21600" windowHeight="11400"/>
+    <workbookView xWindow="4215" yWindow="4200" windowWidth="21600" windowHeight="11400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -102,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Scenes/Map.unity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">本地化美术资源表 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,12 +138,16 @@
   </si>
   <si>
     <t>Assets/Bundles/UI/UILobby/UILobby.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Scenes/Map1.unity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,10 +493,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -541,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -562,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -585,7 +586,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -601,7 +602,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -614,10 +615,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -630,10 +631,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -649,11 +650,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -719,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -742,7 +743,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -758,7 +759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -828,7 +829,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>

--- a/Excel/Localization/LocalizationArtAsset.xlsx
+++ b/Excel/Localization/LocalizationArtAsset.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\SJProject\Excel\Localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\SJProject\Excel\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8275B41-D357-4FA3-802D-E55A4E746F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="4200" windowWidth="21600" windowHeight="11400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="4200" windowWidth="21600" windowHeight="11400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -99,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MapScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">本地化美术资源表 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,13 +136,25 @@
   </si>
   <si>
     <t>Assets/Scenes/Map1.unity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map1Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map2Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Scenes/Map2.unity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,7 +500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -542,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -563,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -586,7 +593,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -602,7 +609,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -615,10 +622,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -631,10 +638,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -650,11 +657,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -740,14 +747,30 @@
         <v>10001</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="2">
+        <v>10002</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -759,7 +782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -829,7 +852,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
